--- a/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B281C9-DF62-493B-B1D0-3BC7492471CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BE7DB6-9679-4329-8A0E-2E23AC7D9DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75CA4A5D-08C6-4435-BA93-32874C534F3A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CA39A89-BFD1-41A0-8DDD-847A2B508293}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,601 +104,601 @@
     <t>11,36%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
   </si>
   <si>
     <t>10,41%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>18,71%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>13,29%</t>
+    <t>13,32%</t>
   </si>
   <si>
     <t>18,3%</t>
@@ -707,25 +707,28 @@
     <t>70,2%</t>
   </si>
   <si>
-    <t>74,64%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
   </si>
   <si>
     <t>55,43%</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>62,84%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -734,310 +737,313 @@
     <t>5,41%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>5,53%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>22,57%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>48,65%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
   </si>
   <si>
     <t>64,37%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B23502-F4E1-4DA3-8E35-7CEB4FFECC80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CCB9B0-D671-459C-B223-C1EA39F6203D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1708,19 +1714,19 @@
         <v>54149</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>263</v>
@@ -1729,13 +1735,13 @@
         <v>212147</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -1744,13 +1750,13 @@
         <v>197706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>641</v>
@@ -1759,13 +1765,13 @@
         <v>409852</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1786,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1795,13 +1801,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1810,18 +1816,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1833,13 +1839,13 @@
         <v>20623</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -1848,13 +1854,13 @@
         <v>36339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -1863,13 +1869,13 @@
         <v>56962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1890,13 @@
         <v>29935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -1899,13 +1905,13 @@
         <v>48558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -1914,13 +1920,13 @@
         <v>78493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1941,13 @@
         <v>87475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>171</v>
@@ -1950,13 +1956,13 @@
         <v>119392</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
@@ -1965,19 +1971,19 @@
         <v>206867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>271</v>
@@ -1986,13 +1992,13 @@
         <v>381264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>428</v>
@@ -2001,13 +2007,13 @@
         <v>350277</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>699</v>
@@ -2016,13 +2022,13 @@
         <v>731541</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,13 +2043,13 @@
         <v>519297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>717</v>
@@ -2052,13 +2058,13 @@
         <v>554566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1099</v>
@@ -2067,18 +2073,18 @@
         <v>1073864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2096,13 @@
         <v>18464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2105,13 +2111,13 @@
         <v>33583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -2120,13 +2126,13 @@
         <v>52048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,10 +2147,10 @@
         <v>24108</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>98</v>
@@ -2195,10 +2201,10 @@
         <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -2207,13 +2213,13 @@
         <v>78964</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -2222,19 +2228,19 @@
         <v>125468</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>248</v>
@@ -2243,13 +2249,13 @@
         <v>233164</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -2258,13 +2264,13 @@
         <v>208951</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -2273,13 +2279,13 @@
         <v>442115</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2300,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>535</v>
@@ -2309,13 +2315,13 @@
         <v>372740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>895</v>
@@ -2324,18 +2330,18 @@
         <v>694980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2353,13 @@
         <v>21013</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2362,13 +2368,13 @@
         <v>36664</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -2377,13 +2383,13 @@
         <v>57677</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2404,13 @@
         <v>32879</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -2413,13 +2419,13 @@
         <v>47624</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -2428,13 +2434,13 @@
         <v>80503</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2455,13 @@
         <v>45717</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>175</v>
@@ -2464,13 +2470,13 @@
         <v>100239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
@@ -2479,19 +2485,19 @@
         <v>145955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>192</v>
@@ -2500,13 +2506,13 @@
         <v>222631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -2515,13 +2521,13 @@
         <v>244029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>484</v>
@@ -2530,13 +2536,13 @@
         <v>466660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2557,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
@@ -2566,13 +2572,13 @@
         <v>428556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
@@ -2581,18 +2587,18 @@
         <v>750796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2604,13 +2610,13 @@
         <v>5206</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2619,13 +2625,13 @@
         <v>10681</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -2634,13 +2640,13 @@
         <v>15887</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2661,13 @@
         <v>10630</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2670,13 +2676,13 @@
         <v>15190</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2685,13 +2691,13 @@
         <v>25820</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2712,13 @@
         <v>142745</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>379</v>
@@ -2721,13 +2727,13 @@
         <v>169194</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>588</v>
@@ -2736,19 +2742,19 @@
         <v>311939</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>45</v>
@@ -2757,10 +2763,10 @@
         <v>38167</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>187</v>
@@ -2808,13 +2814,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2823,13 +2829,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2838,13 +2844,13 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +3011,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>244</v>
@@ -3017,10 +3023,10 @@
         <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>219</v>
@@ -3029,13 +3035,13 @@
         <v>152785</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>463</v>
@@ -3044,13 +3050,13 @@
         <v>347404</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3071,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3080,13 +3086,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3095,18 +3101,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3124,13 @@
         <v>33895</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -3136,10 +3142,10 @@
         <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>139</v>
@@ -3184,13 +3190,13 @@
         <v>105288</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>212</v>
@@ -3199,13 +3205,13 @@
         <v>153265</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3226,13 @@
         <v>141425</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>247</v>
@@ -3235,13 +3241,13 @@
         <v>287412</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>395</v>
@@ -3250,10 +3256,10 @@
         <v>428837</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>255</v>
@@ -3262,7 +3268,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>362</v>
@@ -3322,13 +3328,13 @@
         <v>626677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -3337,13 +3343,13 @@
         <v>804203</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
@@ -3352,13 +3358,13 @@
         <v>1430880</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3438,7 @@
         <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>141</v>
@@ -3441,13 +3447,13 @@
         <v>99569</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>202</v>
@@ -3456,13 +3462,13 @@
         <v>154220</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3483,13 @@
         <v>104596</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>175</v>
@@ -3492,13 +3498,13 @@
         <v>135327</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>287</v>
@@ -3507,19 +3513,19 @@
         <v>239923</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>459</v>
@@ -3528,13 +3534,13 @@
         <v>588341</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>511</v>
@@ -3543,13 +3549,13 @@
         <v>472155</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>970</v>
@@ -3558,13 +3564,13 @@
         <v>1060496</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3585,13 @@
         <v>859428</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
@@ -3594,13 +3600,13 @@
         <v>865672</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
@@ -3609,13 +3615,13 @@
         <v>1725100</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3638,13 @@
         <v>228449</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="H44" s="7">
         <v>570</v>
@@ -3647,13 +3653,13 @@
         <v>372205</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>829</v>
@@ -3662,13 +3668,13 @@
         <v>600654</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>90</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3689,13 @@
         <v>256132</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H45" s="7">
         <v>739</v>
@@ -3698,13 +3704,13 @@
         <v>454755</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>1032</v>
@@ -3713,13 +3719,13 @@
         <v>710887</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3740,13 @@
         <v>625856</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>1443</v>
@@ -3749,13 +3755,13 @@
         <v>972981</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>2182</v>
@@ -3764,19 +3770,19 @@
         <v>1598837</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>2084</v>
@@ -3785,13 +3791,13 @@
         <v>2273714</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>2609</v>
@@ -3800,13 +3806,13 @@
         <v>2004317</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M47" s="7">
         <v>4693</v>
@@ -3815,13 +3821,13 @@
         <v>4278031</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3842,13 @@
         <v>3384151</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>5361</v>
@@ -3851,13 +3857,13 @@
         <v>3804258</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>8736</v>
@@ -3866,18 +3872,18 @@
         <v>7188409</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8BE7DB6-9679-4329-8A0E-2E23AC7D9DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DADA83-618C-4A05-9B72-98A34AF63BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CA39A89-BFD1-41A0-8DDD-847A2B508293}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{692CB51B-53F5-4849-8722-6AAD7DEBE425}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CCB9B0-D671-459C-B223-C1EA39F6203D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF63140-8BC3-4E4A-ABC2-830CEB1AF608}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DADA83-618C-4A05-9B72-98A34AF63BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF4FC4E-3109-4FD2-B80E-E62E668EE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{692CB51B-53F5-4849-8722-6AAD7DEBE425}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D7D452-144F-4B7C-8000-AE2EEBCDFC04}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>11,36%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>13,16%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,25 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,10 +161,10 @@
     <t>81,5%</t>
   </si>
   <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>72,85%</t>
@@ -176,16 +173,16 @@
     <t>68,26%</t>
   </si>
   <si>
-    <t>76,43%</t>
+    <t>76,88%</t>
   </si>
   <si>
     <t>77,08%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,805 +194,802 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,03%</t>
   </si>
   <si>
     <t>19,93%</t>
@@ -1004,46 +998,46 @@
     <t>25,58%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
   </si>
   <si>
     <t>52,69%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1458,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF63140-8BC3-4E4A-ABC2-830CEB1AF608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D3EC12-64B6-4D55-9B0E-A8ED7371F12D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1714,19 +1708,19 @@
         <v>54149</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>263</v>
@@ -1735,13 +1729,13 @@
         <v>212147</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
@@ -1750,13 +1744,13 @@
         <v>197706</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>641</v>
@@ -1765,13 +1759,13 @@
         <v>409852</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,13 +1780,13 @@
         <v>260298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
@@ -1801,13 +1795,13 @@
         <v>271403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
@@ -1816,18 +1810,18 @@
         <v>531700</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1839,13 +1833,13 @@
         <v>20623</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -1854,13 +1848,13 @@
         <v>36339</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
@@ -1869,13 +1863,13 @@
         <v>56962</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1884,13 @@
         <v>29935</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -1905,13 +1899,13 @@
         <v>48558</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -1920,13 +1914,13 @@
         <v>78493</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1935,13 @@
         <v>87475</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>171</v>
@@ -1956,13 +1950,13 @@
         <v>119392</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
@@ -1971,19 +1965,19 @@
         <v>206867</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>271</v>
@@ -1992,13 +1986,13 @@
         <v>381264</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>428</v>
@@ -2007,13 +2001,13 @@
         <v>350277</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>699</v>
@@ -2022,13 +2016,13 @@
         <v>731541</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2037,13 @@
         <v>519297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>717</v>
@@ -2058,13 +2052,13 @@
         <v>554566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1099</v>
@@ -2073,18 +2067,18 @@
         <v>1073864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2096,13 +2090,13 @@
         <v>18464</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -2111,13 +2105,13 @@
         <v>33583</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -2126,13 +2120,13 @@
         <v>52048</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,10 +2141,10 @@
         <v>24108</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>98</v>
@@ -2201,10 +2195,10 @@
         <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
@@ -2213,13 +2207,13 @@
         <v>78964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -2228,19 +2222,19 @@
         <v>125468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>248</v>
@@ -2249,13 +2243,13 @@
         <v>233164</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>279</v>
@@ -2264,13 +2258,13 @@
         <v>208951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>527</v>
@@ -2279,13 +2273,13 @@
         <v>442115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2294,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>535</v>
@@ -2315,13 +2309,13 @@
         <v>372740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>895</v>
@@ -2330,18 +2324,18 @@
         <v>694980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2353,13 +2347,13 @@
         <v>21013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2368,13 +2362,13 @@
         <v>36664</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -2383,13 +2377,13 @@
         <v>57677</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2398,13 @@
         <v>32879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -2419,13 +2413,13 @@
         <v>47624</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -2434,13 +2428,13 @@
         <v>80503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2449,13 @@
         <v>45717</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>175</v>
@@ -2470,13 +2464,13 @@
         <v>100239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
@@ -2485,19 +2479,19 @@
         <v>145955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>192</v>
@@ -2506,13 +2500,13 @@
         <v>222631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -2521,13 +2515,13 @@
         <v>244029</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>484</v>
@@ -2536,13 +2530,13 @@
         <v>466660</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2551,13 @@
         <v>322240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
@@ -2572,13 +2566,13 @@
         <v>428556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
@@ -2587,18 +2581,18 @@
         <v>750796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2610,13 +2604,13 @@
         <v>5206</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2625,13 +2619,13 @@
         <v>10681</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -2640,13 +2634,13 @@
         <v>15887</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2655,13 @@
         <v>10630</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2676,13 +2670,13 @@
         <v>15190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2691,13 +2685,13 @@
         <v>25820</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2706,13 @@
         <v>142745</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>379</v>
@@ -2727,13 +2721,13 @@
         <v>169194</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>588</v>
@@ -2742,19 +2736,19 @@
         <v>311939</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>45</v>
@@ -2763,10 +2757,10 @@
         <v>38167</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>187</v>
@@ -2814,13 +2808,13 @@
         <v>196748</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
@@ -2829,13 +2823,13 @@
         <v>231496</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
@@ -2844,13 +2838,13 @@
         <v>428244</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,7 +3005,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>244</v>
@@ -3023,10 +3017,10 @@
         <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>219</v>
@@ -3035,13 +3029,13 @@
         <v>152785</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>463</v>
@@ -3050,13 +3044,13 @@
         <v>347404</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3065,13 @@
         <v>277223</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
@@ -3086,13 +3080,13 @@
         <v>275622</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -3101,18 +3095,18 @@
         <v>552845</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3124,13 +3118,13 @@
         <v>33895</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
@@ -3142,10 +3136,10 @@
         <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>139</v>
@@ -3190,13 +3184,13 @@
         <v>105288</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>212</v>
@@ -3205,13 +3199,13 @@
         <v>153265</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3220,13 @@
         <v>141425</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>247</v>
@@ -3241,13 +3235,13 @@
         <v>287412</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>395</v>
@@ -3256,10 +3250,10 @@
         <v>428837</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>255</v>
@@ -3268,7 +3262,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>362</v>
@@ -3328,13 +3322,13 @@
         <v>626677</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
@@ -3343,13 +3337,13 @@
         <v>804203</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
@@ -3358,13 +3352,13 @@
         <v>1430880</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3432,7 @@
         <v>276</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="H40" s="7">
         <v>141</v>
@@ -3447,13 +3441,13 @@
         <v>99569</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="M40" s="7">
         <v>202</v>
@@ -3462,13 +3456,13 @@
         <v>154220</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3477,13 @@
         <v>104596</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>175</v>
@@ -3498,13 +3492,13 @@
         <v>135327</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>287</v>
@@ -3513,19 +3507,19 @@
         <v>239923</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>459</v>
@@ -3534,13 +3528,13 @@
         <v>588341</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>511</v>
@@ -3549,13 +3543,13 @@
         <v>472155</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>970</v>
@@ -3564,13 +3558,13 @@
         <v>1060496</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3579,13 @@
         <v>859428</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
@@ -3600,13 +3594,13 @@
         <v>865672</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
@@ -3615,13 +3609,13 @@
         <v>1725100</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3632,13 @@
         <v>228449</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="H44" s="7">
         <v>570</v>
@@ -3653,13 +3647,13 @@
         <v>372205</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>829</v>
@@ -3668,13 +3662,13 @@
         <v>600654</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>308</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3683,13 @@
         <v>256132</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H45" s="7">
         <v>739</v>
@@ -3704,13 +3698,13 @@
         <v>454755</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>1032</v>
@@ -3719,13 +3713,13 @@
         <v>710887</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3734,13 @@
         <v>625856</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>1443</v>
@@ -3755,13 +3749,13 @@
         <v>972981</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>2182</v>
@@ -3770,19 +3764,19 @@
         <v>1598837</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>2084</v>
@@ -3791,13 +3785,13 @@
         <v>2273714</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>2609</v>
@@ -3806,13 +3800,13 @@
         <v>2004317</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M47" s="7">
         <v>4693</v>
@@ -3821,13 +3815,13 @@
         <v>4278031</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3836,13 @@
         <v>3384151</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>5361</v>
@@ -3857,13 +3851,13 @@
         <v>3804258</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>8736</v>
@@ -3872,18 +3866,18 @@
         <v>7188409</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF4FC4E-3109-4FD2-B80E-E62E668EE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D96C2F-7F4A-4731-869A-9B74F0A38130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D7D452-144F-4B7C-8000-AE2EEBCDFC04}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E06EDE12-ED03-426E-AE82-3C9D0E650D40}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,973 +71,961 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D3EC12-64B6-4D55-9B0E-A8ED7371F12D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D83064-770B-4C38-9ED0-82C5EEE94D0B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1573,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1588,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1620</v>
+        <v>1711</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1603,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2412</v>
+        <v>2549</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1624,7 +1612,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>29576</v>
+        <v>33706</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1639,7 +1627,7 @@
         <v>80</v>
       </c>
       <c r="I5" s="7">
-        <v>35711</v>
+        <v>36854</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1654,7 +1642,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="7">
-        <v>65287</v>
+        <v>70561</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1675,7 +1663,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>17783</v>
+        <v>20384</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1690,7 +1678,7 @@
         <v>76</v>
       </c>
       <c r="I6" s="7">
-        <v>36366</v>
+        <v>38694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1705,67 +1693,67 @@
         <v>105</v>
       </c>
       <c r="N6" s="7">
-        <v>54149</v>
+        <v>59078</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>263</v>
       </c>
       <c r="D7" s="7">
-        <v>212147</v>
+        <v>256514</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>378</v>
       </c>
       <c r="I7" s="7">
-        <v>197706</v>
+        <v>212376</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>641</v>
       </c>
       <c r="N7" s="7">
-        <v>409852</v>
+        <v>468890</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,51 +1765,51 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1830,46 +1818,46 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>20623</v>
+        <v>20472</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>36339</v>
+        <v>33359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>64</v>
       </c>
       <c r="N9" s="7">
-        <v>56962</v>
+        <v>53831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,46 +1869,46 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>29935</v>
+        <v>29568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>48558</v>
+        <v>44975</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>78493</v>
+        <v>74542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,97 +1920,97 @@
         <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>87475</v>
+        <v>84666</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>171</v>
       </c>
       <c r="I11" s="7">
-        <v>119392</v>
+        <v>111254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>243</v>
       </c>
       <c r="N11" s="7">
-        <v>206867</v>
+        <v>195920</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>271</v>
       </c>
       <c r="D12" s="7">
-        <v>381264</v>
+        <v>383684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>428</v>
       </c>
       <c r="I12" s="7">
-        <v>350277</v>
+        <v>325382</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>699</v>
       </c>
       <c r="N12" s="7">
-        <v>731541</v>
+        <v>709066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,51 +2022,51 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2087,46 +2075,46 @@
         <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>18464</v>
+        <v>17624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>33583</v>
+        <v>31271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>52048</v>
+        <v>48894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,46 +2126,46 @@
         <v>30</v>
       </c>
       <c r="D15" s="7">
-        <v>24108</v>
+        <v>23517</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
       </c>
       <c r="I15" s="7">
-        <v>51242</v>
+        <v>47631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>75350</v>
+        <v>71148</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,43 +2177,43 @@
         <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>46504</v>
+        <v>44852</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>123</v>
       </c>
       <c r="I16" s="7">
-        <v>78964</v>
+        <v>73538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
       </c>
       <c r="N16" s="7">
-        <v>125468</v>
+        <v>118389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -2234,13 +2222,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>248</v>
       </c>
       <c r="D17" s="7">
-        <v>233164</v>
+        <v>230057</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -2255,7 +2243,7 @@
         <v>279</v>
       </c>
       <c r="I17" s="7">
-        <v>208951</v>
+        <v>196186</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -2270,7 +2258,7 @@
         <v>527</v>
       </c>
       <c r="N17" s="7">
-        <v>442115</v>
+        <v>426243</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -2291,46 +2279,46 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>535</v>
       </c>
       <c r="I18" s="7">
-        <v>372740</v>
+        <v>348625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>895</v>
       </c>
       <c r="N18" s="7">
-        <v>694980</v>
+        <v>664675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,46 +2332,46 @@
         <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>21013</v>
+        <v>20253</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>36664</v>
+        <v>33827</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
       </c>
       <c r="N19" s="7">
-        <v>57677</v>
+        <v>54079</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,46 +2383,46 @@
         <v>31</v>
       </c>
       <c r="D20" s="7">
-        <v>32879</v>
+        <v>31224</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
       </c>
       <c r="I20" s="7">
-        <v>47624</v>
+        <v>43643</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
       </c>
       <c r="N20" s="7">
-        <v>80503</v>
+        <v>74867</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,97 +2434,97 @@
         <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>45717</v>
+        <v>43866</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>175</v>
       </c>
       <c r="I21" s="7">
-        <v>100239</v>
+        <v>93055</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>222</v>
       </c>
       <c r="N21" s="7">
-        <v>145955</v>
+        <v>136920</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>192</v>
       </c>
       <c r="D22" s="7">
-        <v>222631</v>
+        <v>217214</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
       </c>
       <c r="I22" s="7">
-        <v>244029</v>
+        <v>305193</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>484</v>
       </c>
       <c r="N22" s="7">
-        <v>466660</v>
+        <v>522407</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,51 +2536,51 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2601,46 +2589,46 @@
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>5206</v>
+        <v>4706</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>10681</v>
+        <v>9674</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>15887</v>
+        <v>14380</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,46 +2640,46 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>10630</v>
+        <v>9618</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>15190</v>
+        <v>13885</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
       </c>
       <c r="N25" s="7">
-        <v>25820</v>
+        <v>23503</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,64 +2691,64 @@
         <v>209</v>
       </c>
       <c r="D26" s="7">
-        <v>142745</v>
+        <v>130283</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>379</v>
       </c>
       <c r="I26" s="7">
-        <v>169194</v>
+        <v>153630</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>588</v>
       </c>
       <c r="N26" s="7">
-        <v>311939</v>
+        <v>283913</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>45</v>
       </c>
       <c r="D27" s="7">
-        <v>38167</v>
+        <v>34135</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>187</v>
@@ -2769,7 +2757,7 @@
         <v>52</v>
       </c>
       <c r="I27" s="7">
-        <v>36431</v>
+        <v>31085</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>188</v>
@@ -2784,7 +2772,7 @@
         <v>97</v>
       </c>
       <c r="N27" s="7">
-        <v>74598</v>
+        <v>65220</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>191</v>
@@ -2805,46 +2793,46 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,46 +2846,46 @@
         <v>24</v>
       </c>
       <c r="D29" s="7">
-        <v>16617</v>
+        <v>15825</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
       </c>
       <c r="I29" s="7">
-        <v>25177</v>
+        <v>23397</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>69</v>
       </c>
       <c r="N29" s="7">
-        <v>41793</v>
+        <v>39222</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,46 +2897,46 @@
         <v>40</v>
       </c>
       <c r="D30" s="7">
-        <v>26376</v>
+        <v>25299</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
       </c>
       <c r="I30" s="7">
-        <v>51572</v>
+        <v>47984</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>139</v>
       </c>
       <c r="N30" s="7">
-        <v>77948</v>
+        <v>73284</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,97 +2948,97 @@
         <v>63</v>
       </c>
       <c r="D31" s="7">
-        <v>39611</v>
+        <v>38252</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>97</v>
       </c>
       <c r="I31" s="7">
-        <v>46088</v>
+        <v>43029</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
       </c>
       <c r="N31" s="7">
-        <v>85699</v>
+        <v>81281</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>244</v>
       </c>
       <c r="D32" s="7">
-        <v>194619</v>
+        <v>190260</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>219</v>
       </c>
       <c r="I32" s="7">
-        <v>152785</v>
+        <v>142645</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>463</v>
       </c>
       <c r="N32" s="7">
-        <v>347404</v>
+        <v>332906</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,51 +3050,51 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3115,46 +3103,46 @@
         <v>36</v>
       </c>
       <c r="D34" s="7">
-        <v>33895</v>
+        <v>32504</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>103</v>
       </c>
       <c r="I34" s="7">
-        <v>69519</v>
+        <v>64169</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>139</v>
       </c>
       <c r="N34" s="7">
-        <v>103414</v>
+        <v>96673</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,46 +3154,46 @@
         <v>52</v>
       </c>
       <c r="D35" s="7">
-        <v>47977</v>
+        <v>46101</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>160</v>
       </c>
       <c r="I35" s="7">
-        <v>105288</v>
+        <v>98047</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>212</v>
       </c>
       <c r="N35" s="7">
-        <v>153265</v>
+        <v>144149</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,97 +3205,97 @@
         <v>148</v>
       </c>
       <c r="D36" s="7">
-        <v>141425</v>
+        <v>137907</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>247</v>
       </c>
       <c r="I36" s="7">
-        <v>287412</v>
+        <v>368516</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>395</v>
       </c>
       <c r="N36" s="7">
-        <v>428837</v>
+        <v>506423</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>362</v>
       </c>
       <c r="D37" s="7">
-        <v>403380</v>
+        <v>406738</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>450</v>
       </c>
       <c r="I37" s="7">
-        <v>341984</v>
+        <v>318532</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>812</v>
       </c>
       <c r="N37" s="7">
-        <v>745364</v>
+        <v>725269</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,51 +3307,51 @@
         <v>598</v>
       </c>
       <c r="D38" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
       </c>
       <c r="N38" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3372,46 +3360,46 @@
         <v>130</v>
       </c>
       <c r="D39" s="7">
-        <v>111839</v>
+        <v>95768</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>234</v>
       </c>
       <c r="I39" s="7">
-        <v>158622</v>
+        <v>133807</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>364</v>
       </c>
       <c r="N39" s="7">
-        <v>270461</v>
+        <v>229575</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,46 +3411,46 @@
         <v>61</v>
       </c>
       <c r="D40" s="7">
-        <v>54651</v>
+        <v>46772</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>141</v>
       </c>
       <c r="I40" s="7">
-        <v>99569</v>
+        <v>83691</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M40" s="7">
         <v>202</v>
       </c>
       <c r="N40" s="7">
-        <v>154220</v>
+        <v>130463</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,97 +3462,97 @@
         <v>112</v>
       </c>
       <c r="D41" s="7">
-        <v>104596</v>
+        <v>88858</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>175</v>
       </c>
       <c r="I41" s="7">
-        <v>135327</v>
+        <v>112245</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>287</v>
       </c>
       <c r="N41" s="7">
-        <v>239923</v>
+        <v>201103</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>459</v>
       </c>
       <c r="D42" s="7">
-        <v>588341</v>
+        <v>697322</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>511</v>
       </c>
       <c r="I42" s="7">
-        <v>472155</v>
+        <v>385649</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>970</v>
       </c>
       <c r="N42" s="7">
-        <v>1060496</v>
+        <v>1082971</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,46 +3564,46 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,46 +3617,46 @@
         <v>259</v>
       </c>
       <c r="D44" s="7">
-        <v>228449</v>
+        <v>207989</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>570</v>
       </c>
       <c r="I44" s="7">
-        <v>372205</v>
+        <v>331214</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>829</v>
       </c>
       <c r="N44" s="7">
-        <v>600654</v>
+        <v>539203</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,46 +3668,46 @@
         <v>293</v>
       </c>
       <c r="D45" s="7">
-        <v>256132</v>
+        <v>245807</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>126</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>739</v>
       </c>
       <c r="I45" s="7">
-        <v>454755</v>
+        <v>416710</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M45" s="7">
         <v>1032</v>
       </c>
       <c r="N45" s="7">
-        <v>710887</v>
+        <v>662517</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,97 +3719,97 @@
         <v>739</v>
       </c>
       <c r="D46" s="7">
-        <v>625856</v>
+        <v>589067</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>1443</v>
       </c>
       <c r="I46" s="7">
-        <v>972981</v>
+        <v>993961</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>2182</v>
       </c>
       <c r="N46" s="7">
-        <v>1598837</v>
+        <v>1583027</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>2084</v>
       </c>
       <c r="D47" s="7">
-        <v>2273714</v>
+        <v>2415925</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>2609</v>
       </c>
       <c r="I47" s="7">
-        <v>2004317</v>
+        <v>1917047</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>4693</v>
       </c>
       <c r="N47" s="7">
-        <v>4278031</v>
+        <v>4332971</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,51 +3821,51 @@
         <v>3375</v>
       </c>
       <c r="D48" s="7">
-        <v>3384151</v>
+        <v>3458787</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>5361</v>
       </c>
       <c r="I48" s="7">
-        <v>3804258</v>
+        <v>3658932</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>8736</v>
       </c>
       <c r="N48" s="7">
-        <v>7188409</v>
+        <v>7117719</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
+          <t>Población según la frecuencia con la que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
